--- a/src/excels/immune/merged_top_genes.xlsx
+++ b/src/excels/immune/merged_top_genes.xlsx
@@ -1959,7 +1959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,41 +2017,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mt-Co1</t>
+          <t>Atp8b4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.3, 0.4, 0.5</t>
+          <t>0.3, 0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Atp8b4</t>
+          <t>Fau</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.3, 0.4</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mt-Co3</t>
+          <t>Mctp2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2092,26 +2092,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dach1</t>
+          <t>Tpt1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.52</v>
+        <v>0.42</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atp1b3</t>
+          <t>Dach1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2122,13 +2122,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Atp1b3</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>H2-K1</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>0.52</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Agfg1</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>

--- a/src/excels/immune/merged_top_genes.xlsx
+++ b/src/excels/immune/merged_top_genes.xlsx
@@ -1273,7 +1273,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ccl3</t>
+          <t>Ccl3*</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1288,7 +1288,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Atf3</t>
+          <t>Atf3*</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1303,7 +1303,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Cd83*</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1318,7 +1318,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fam214b</t>
+          <t>Fam214b*</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1333,7 +1333,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Relb</t>
+          <t>Relb*</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1348,7 +1348,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gfap</t>
+          <t>Gfap*</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1363,7 +1363,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Uvssa</t>
+          <t>Uvssa*</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1378,7 +1378,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cracr2a</t>
+          <t>Cracr2a*</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1393,7 +1393,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Coro1c</t>
+          <t>Coro1c*</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1408,7 +1408,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chtop</t>
+          <t>Chtop*</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2002,7 +2002,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ccdc88c</t>
+          <t>Ccdc88c*</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2017,7 +2017,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atp8b4</t>
+          <t>Atp8b4*</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2032,7 +2032,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fau</t>
+          <t>Fau*</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2047,7 +2047,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mctp2</t>
+          <t>Mctp2*</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2062,7 +2062,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rps14</t>
+          <t>Rps14*</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2077,7 +2077,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lrrc8c</t>
+          <t>Lrrc8c*</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2092,7 +2092,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tpt1</t>
+          <t>Tpt1*</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2107,7 +2107,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dach1</t>
+          <t>Dach1*</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2122,7 +2122,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atp1b3</t>
+          <t>Atp1b3*</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2137,7 +2137,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>H2-K1</t>
+          <t>H2-K1*</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2152,7 +2152,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Agfg1</t>
+          <t>Agfg1*</t>
         </is>
       </c>
       <c r="B13" t="n">
